--- a/gen-static-data-go/sd/xlsx/test.xlsx
+++ b/gen-static-data-go/sd/xlsx/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mgsu\pb\gen_static_data_go\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\space\mgsu\gen-static-data-go\sd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E5D2FF-2284-41A6-BD7C-3AE72DA7FE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5633E7D8-2CC3-47FD-85D1-02D7BE37B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,24 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -69,9 +81,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>#int64</t>
-  </si>
-  <si>
     <t>dur</t>
   </si>
   <si>
@@ -105,9 +114,6 @@
     <t>Item_arr</t>
   </si>
   <si>
-    <t>#整型</t>
-  </si>
-  <si>
     <t>字符串</t>
   </si>
   <si>
@@ -153,12 +159,6 @@
     <t>测试</t>
   </si>
   <si>
-    <t>注释1</t>
-  </si>
-  <si>
-    <t>船只1</t>
-  </si>
-  <si>
     <t>Name1</t>
   </si>
   <si>
@@ -195,9 +195,6 @@
     <t>[[1,2],[3,4]]</t>
   </si>
   <si>
-    <t>注释2</t>
-  </si>
-  <si>
     <t>Name2</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>注释3</t>
   </si>
   <si>
-    <t>船只3</t>
-  </si>
-  <si>
     <t>Name3</t>
   </si>
   <si>
@@ -318,15 +312,63 @@
     <t>锁定浆/甲数量</t>
   </si>
   <si>
-    <t>船只2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>s235235</t>
+    <t>int64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfsg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#sss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">注释1 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#整型 非数据行#号无效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#注释2 #号只过滤该数据行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#string 非数据行#号无效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#注释3 第一行(变量名行)开头#号过滤该列</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +412,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -399,20 +447,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,12 +779,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.44140625" style="1" customWidth="1"/>
@@ -749,366 +803,379 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:18" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
+      <c r="C4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4">
+        <v>0.123456</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.123456</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="3">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>1234567.1234559999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:18" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>12345678.123455999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1234567.1234559999</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>123456789.123456</v>
+      </c>
+      <c r="K7" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="L7" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="2">
-        <v>12345678.123455999</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="M7" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="N7" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="2">
-        <v>123456789.123456</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1132,98 +1199,98 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
